--- a/Task list.xlsx
+++ b/Task list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshchopra/Documents/Dinesh/Practical/AI-ML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E8341F-B8CD-2146-BF21-3F4BC6A6E8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD64943-8250-AC41-AAD9-F8A67C302AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{4F831366-8EB7-D34F-A3BB-B012BA10DAA3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Task Details</t>
   </si>
@@ -49,6 +49,45 @@
   </si>
   <si>
     <t>Add guidelines for adding new Module, so that in future anyone can add new module</t>
+  </si>
+  <si>
+    <t>Stone Paper Scissors (Create CNN Model)</t>
+  </si>
+  <si>
+    <t>Vinit and Naman</t>
+  </si>
+  <si>
+    <t>Target Date</t>
+  </si>
+  <si>
+    <t>22-23 May</t>
+  </si>
+  <si>
+    <t>Create CNN Model</t>
+  </si>
+  <si>
+    <t>Train CNN Model</t>
+  </si>
+  <si>
+    <t>Save Model</t>
+  </si>
+  <si>
+    <t>Import model into html page</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Pose Detection</t>
+  </si>
+  <si>
+    <t>How many seconds person stand on one feet</t>
+  </si>
+  <si>
+    <t>Use Transfer Learning by MoveNet</t>
+  </si>
+  <si>
+    <t>Karun, Raman, Dinesh</t>
   </si>
 </sst>
 </file>
@@ -79,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,8 +131,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -116,16 +161,240 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,25 +712,29 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.1640625" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="21.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -470,7 +743,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -479,7 +752,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -488,121 +761,146 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+    <row r="6" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+    <row r="11" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+    <row r="12" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+    <row r="13" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+    <row r="14" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+    <row r="15" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
